--- a/ApolloQA/Data/RatingManual/GA/CT.1.xlsx
+++ b/ApolloQA/Data/RatingManual/GA/CT.1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CT.1" sheetId="1" r:id="Ra311c5616c6246c6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CT.1" sheetId="1" r:id="Rd625c52725704621"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -15,7 +15,25 @@
         <x:v>Class Code</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Class Code Description</x:v>
+        <x:v>Rating Group</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Driver Rating Plan</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Increased Limit Group</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>BIPD</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Collision</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>OTC</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Med Pay</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -23,7 +41,25 @@
         <x:v>401</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Truckers - Long Haul</x:v>
+        <x:v>Truckers</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Trucker</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Truckers - Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00058</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00065</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00043</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00050</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -31,7 +67,25 @@
         <x:v>410</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Truckers - Intermodal Container Haulers</x:v>
+        <x:v>Truckers</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Trucker</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Truckers - Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00058</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00065</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00043</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00050</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -39,7 +93,25 @@
         <x:v>412</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Truckers - Frac Sand Haulers</x:v>
+        <x:v>Truckers</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Trucker</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Truckers - Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00058</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00065</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00043</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00050</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -47,7 +119,25 @@
         <x:v>420</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Truckers - Intermodal Container Hazmat Hauler</x:v>
+        <x:v>Truckers</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Trucker</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Truckers - Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00058</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00065</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00043</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00050</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -55,7 +145,25 @@
         <x:v>421</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Truckers - Explosives Hauler</x:v>
+        <x:v>Truckers</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Trucker</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Truckers - Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00058</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00065</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00043</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00050</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -63,7 +171,25 @@
         <x:v>422</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Truckers - Gaseous Substances Hauler</x:v>
+        <x:v>Truckers</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Trucker</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Truckers - Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00058</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00065</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00043</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00050</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -71,7 +197,25 @@
         <x:v>423</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Truckers - Flammable Liquids Hauler</x:v>
+        <x:v>Truckers</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Trucker</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Truckers - Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00058</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00065</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00043</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00050</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -79,7 +223,25 @@
         <x:v>424</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Truckers - Flammable Solids Hauler</x:v>
+        <x:v>Truckers</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Trucker</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Truckers - Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00058</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00065</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00043</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00050</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -87,7 +249,25 @@
         <x:v>425</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Truckers - Oxidizers and Peroxides Hauler</x:v>
+        <x:v>Truckers</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Trucker</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Truckers - Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00058</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00065</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00043</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00050</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -95,7 +275,25 @@
         <x:v>426</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Truckers - Poisonous Materials and Infectious Substances Hauler</x:v>
+        <x:v>Truckers</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Trucker</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Truckers - Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00058</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00065</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00043</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00050</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -103,7 +301,25 @@
         <x:v>428</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Truckers - Corrosive Materials Hauler</x:v>
+        <x:v>Truckers</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Trucker</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Truckers - Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00058</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00065</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00043</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00050</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -111,7 +327,25 @@
         <x:v>429</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Truckers - Not Otherwise Classified Hazmat Hauler</x:v>
+        <x:v>Truckers</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Trucker</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Truckers - Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00058</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00065</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00043</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00050</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -119,7 +353,25 @@
         <x:v>501</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Truckers - Short Haul</x:v>
+        <x:v>Truckers</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Trucker</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Truckers - Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00058</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00065</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00043</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00050</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -127,7 +379,25 @@
         <x:v>502</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Truckers Contingent Liability - Bobtail</x:v>
+        <x:v>Truckers</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Trucker</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Truckers - Contingent</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00058</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00065</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00043</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00050</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -135,7 +405,25 @@
         <x:v>503</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Truckers Contingent Liability - Deadhead</x:v>
+        <x:v>Truckers</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Trucker</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Truckers - Contingent</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00058</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00065</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00043</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00050</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -143,7 +431,25 @@
         <x:v>504</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Food Delivery</x:v>
+        <x:v>All Other Trucks</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>All Other Trucks - Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00059</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00066</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00044</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00051</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -151,7 +457,25 @@
         <x:v>505</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Specialized Delivery</x:v>
+        <x:v>Truckers</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Trucker</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Truckers - Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00058</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00065</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00043</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00050</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -159,7 +483,25 @@
         <x:v>506</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Waste Oil Transporters</x:v>
+        <x:v>Truckers</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Trucker</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Truckers - Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00058</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00065</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00043</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00050</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -167,7 +509,25 @@
         <x:v>507</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Waste Disposal Trucks</x:v>
+        <x:v>All Other Trucks</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>All Other Trucks - Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00059</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00066</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00044</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00051</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -175,7 +535,25 @@
         <x:v>508</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Farmers</x:v>
+        <x:v>All Other Trucks</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>All Other Trucks - Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00059</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00066</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00044</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00051</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -183,7 +561,25 @@
         <x:v>509</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Transit Mix Trucks</x:v>
+        <x:v>All Other Trucks</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>All Other Trucks - Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00059</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00066</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00044</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00051</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -191,7 +587,25 @@
         <x:v>510</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Dump Trucks - For Hire</x:v>
+        <x:v>Truckers</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Trucker</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Truckers - Dump</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00058</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00065</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00043</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00050</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -199,7 +613,25 @@
         <x:v>511</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Dump Trucks - Incidental Use</x:v>
+        <x:v>All Other Trucks</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>All Other Trucks - Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00059</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00066</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00044</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00051</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -207,7 +639,25 @@
         <x:v>513</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Contractors</x:v>
+        <x:v>All Other Trucks</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>All Other Trucks - Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00059</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00066</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00044</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00051</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -215,7 +665,25 @@
         <x:v>514</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Snow Plows - Not Permanently Attached</x:v>
+        <x:v>All Other Trucks</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>All Other Trucks - Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00059</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00066</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00044</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00051</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -223,7 +691,25 @@
         <x:v>515</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Log Trucks - For Hire</x:v>
+        <x:v>Truckers</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Trucker</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Truckers - Log</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00058</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00065</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00043</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00050</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -231,7 +717,25 @@
         <x:v>516</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Mobile Home Transporters (Toters)</x:v>
+        <x:v>Truckers</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Trucker</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Truckers - Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00058</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00065</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00043</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00050</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -239,7 +743,25 @@
         <x:v>517</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Tow Trucks - Full Time</x:v>
+        <x:v>All Other Trucks</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>All Other Trucks - Tow</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00059</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00066</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00044</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00051</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -247,7 +769,25 @@
         <x:v>518</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Tow Trucks - Fleet Service</x:v>
+        <x:v>All Other Trucks</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>All Other Trucks - Tow</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00059</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00066</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00044</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00051</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -255,7 +795,25 @@
         <x:v>519</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>House Movers</x:v>
+        <x:v>All Other Trucks</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>All Other Trucks - Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00059</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00066</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00044</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00051</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -263,7 +821,25 @@
         <x:v>520</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Moving Operations</x:v>
+        <x:v>All Other Trucks</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>All Other Trucks - Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00059</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00066</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00044</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00051</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -271,7 +847,25 @@
         <x:v>521</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Gasoline, Diesel Fuel, &amp; Airplane Fuel Haulers</x:v>
+        <x:v>Truckers</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Trucker</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Truckers - Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00058</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00065</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00043</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00050</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -279,7 +873,25 @@
         <x:v>522</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>LPG, Butane, &amp; Propane Haulers (Bulk)</x:v>
+        <x:v>Truckers</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Trucker</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Truckers - Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00058</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00065</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00043</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00050</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -287,7 +899,25 @@
         <x:v>523</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>LPG, Butane, &amp; Propane Haulers (Bottled)</x:v>
+        <x:v>Truckers</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Trucker</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Truckers - Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00058</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00065</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00043</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00050</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -295,7 +925,25 @@
         <x:v>531</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Pulpwood Haulers - For Hire</x:v>
+        <x:v>Truckers</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Trucker</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Truckers - Log</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00058</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00065</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00043</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00050</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -303,7 +951,25 @@
         <x:v>534</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Fuel Oil Haulers</x:v>
+        <x:v>Truckers</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Trucker</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Truckers - Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00058</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00065</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00043</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00050</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -311,7 +977,25 @@
         <x:v>535</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Lawn &amp; Tree Service Trucks</x:v>
+        <x:v>All Other Trucks</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>All Other Trucks - Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00059</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00066</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00044</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00051</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -319,7 +1003,25 @@
         <x:v>536</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Caterer Vehicles</x:v>
+        <x:v>All Other Trucks</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>All Other Trucks - Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00059</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00066</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00044</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00051</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -327,7 +1029,25 @@
         <x:v>537</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Mobile Concession Trucks</x:v>
+        <x:v>All Other Trucks</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>All Other Trucks - Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00059</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00066</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00044</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00051</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -335,7 +1055,25 @@
         <x:v>538</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Wholesalers &amp; Manufacturers</x:v>
+        <x:v>All Other Trucks</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>All Other Trucks - Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00059</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00066</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00044</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00051</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -343,7 +1081,25 @@
         <x:v>539</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Tow Trucks - Incidental Use</x:v>
+        <x:v>All Other Trucks</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>All Other Trucks - Tow</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00059</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00066</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00044</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00051</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -351,7 +1107,25 @@
         <x:v>540</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Dump Trucks - Municipality Owned</x:v>
+        <x:v>All Other Trucks</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>All Other Trucks - Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00059</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00066</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00044</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00051</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -359,7 +1133,25 @@
         <x:v>541</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Courier Service Trucks</x:v>
+        <x:v>Truckers</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Trucker</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Truckers - Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00058</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00065</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00043</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00050</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -367,7 +1159,25 @@
         <x:v>542</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Tiltbed Tow Trucks</x:v>
+        <x:v>All Other Trucks</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>All Other Trucks - Tow</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00059</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00066</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00044</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00051</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -375,7 +1185,25 @@
         <x:v>543</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Car Carriers</x:v>
+        <x:v>Truckers</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Trucker</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Truckers - Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00058</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00065</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00043</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00050</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -383,7 +1211,25 @@
         <x:v>544</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Tow Trucks - Automobile Repossessors</x:v>
+        <x:v>All Other Trucks</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>All Other Trucks - Tow</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00059</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00066</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00044</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00051</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -391,7 +1237,25 @@
         <x:v>545</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Dump Trucks - Not For Hire</x:v>
+        <x:v>All Other Trucks</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>All Other Trucks - Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00059</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00066</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00044</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00051</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -399,7 +1263,25 @@
         <x:v>546</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Log Trucks - Not For Hire</x:v>
+        <x:v>All Other Trucks</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>All Other Trucks - Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00059</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00066</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00044</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00051</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -407,7 +1289,25 @@
         <x:v>547</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Pulpwood Haulers - Not For Hire</x:v>
+        <x:v>All Other Trucks</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>All Other Trucks - Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00059</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00066</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00044</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00051</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -415,7 +1315,25 @@
         <x:v>548</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Salvage Haulers</x:v>
+        <x:v>All Other Trucks</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>All Other Trucks - Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00059</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00066</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00044</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00051</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -423,7 +1341,25 @@
         <x:v>549</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Custom Harvesters</x:v>
+        <x:v>All Other Trucks</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>All Other Trucks - Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00059</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00066</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00044</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00051</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -431,7 +1367,25 @@
         <x:v>550</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Mobile or Farm Equipment</x:v>
+        <x:v>All Other Trucks</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>All Other Trucks - Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00059</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00066</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00044</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00051</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -439,7 +1393,25 @@
         <x:v>551</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Gasoline, Diesel Fuel, &amp; Airplane Fuel Haulers - Not For Hire</x:v>
+        <x:v>All Other Trucks</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>All Other Trucks - Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00059</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00066</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00044</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00051</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -447,7 +1419,25 @@
         <x:v>552</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>LPG, Butane, &amp; Propane Haulers (Bulk) - Not For Hire</x:v>
+        <x:v>All Other Trucks</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>All Other Trucks - Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00059</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00066</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00044</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00051</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -455,7 +1445,25 @@
         <x:v>553</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>LPG, Butane, &amp; Propane Haulers (Bottled) - Not For Hire</x:v>
+        <x:v>All Other Trucks</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>All Other Trucks - Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00059</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00066</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00044</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00051</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -463,7 +1471,25 @@
         <x:v>554</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Fuel Oil Haulers - Not For Hire</x:v>
+        <x:v>All Other Trucks</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>All Other Trucks - Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00059</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00066</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00044</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00051</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -471,7 +1497,25 @@
         <x:v>555</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Car Carriers - Not For Hire</x:v>
+        <x:v>All Other Trucks</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>All Other Trucks - Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00059</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00066</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00044</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00051</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -479,7 +1523,25 @@
         <x:v>556</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Contractors - Boom Trucks</x:v>
+        <x:v>All Other Trucks</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>All Other Trucks - Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00059</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00066</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00044</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00051</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -487,7 +1549,25 @@
         <x:v>557</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Contractors - Excavation, Drilling, and Land Grading Operations</x:v>
+        <x:v>All Other Trucks</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>All Other Trucks - Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00059</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00066</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00044</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00051</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -495,7 +1575,25 @@
         <x:v>558</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Contractors - Welding and Metalworking Operations</x:v>
+        <x:v>All Other Trucks</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>All Other Trucks - Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00059</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00066</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00044</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00051</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -503,7 +1601,25 @@
         <x:v>559</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Contractors - Septic Tank Service Trucks</x:v>
+        <x:v>All Other Trucks</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>All Other Trucks - Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00059</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00066</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00044</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00051</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -511,7 +1627,25 @@
         <x:v>560</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Contractors - Oil Field / Energy Contractors</x:v>
+        <x:v>All Other Trucks</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>All Other Trucks - Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00059</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00066</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00044</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00051</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -519,7 +1653,25 @@
         <x:v>561</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Contractors - Petroleum Distribution Contractors</x:v>
+        <x:v>All Other Trucks</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>All Other Trucks - Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00059</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00066</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00044</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00051</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -527,7 +1679,25 @@
         <x:v>562</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Energy-related Drilling Waste Hauler</x:v>
+        <x:v>Truckers</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Trucker</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Truckers - Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00058</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00065</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00043</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00050</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -535,7 +1705,25 @@
         <x:v>563</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Crude Oil Haulers - For Hire</x:v>
+        <x:v>Truckers</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Trucker</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Truckers - Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00058</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00065</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00043</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00050</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -543,7 +1731,25 @@
         <x:v>564</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Crude Oil Haulers - Not For Hire</x:v>
+        <x:v>All Other Trucks</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>All Other Trucks - Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00059</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00066</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00044</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00051</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -551,7 +1757,25 @@
         <x:v>565</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Contractors - Cable, Telecom, and Other Utility Contractors</x:v>
+        <x:v>All Other Trucks</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>All Other Trucks - Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00059</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00066</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00044</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00051</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -559,7 +1783,25 @@
         <x:v>566</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Tiltbed Tow Trucks - Incidental Use</x:v>
+        <x:v>All Other Trucks</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>All Other Trucks - Tow</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00059</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00066</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00044</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00051</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -567,7 +1809,25 @@
         <x:v>568</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Tiltbed Tow Trucks - Automobile Repossessors</x:v>
+        <x:v>All Other Trucks</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>All Other Trucks - Tow</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00059</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00066</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00044</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00051</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -575,7 +1835,25 @@
         <x:v>569</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Firework Haulers - Not For Hire</x:v>
+        <x:v>All Other Trucks</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>All Other Trucks - Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00059</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00066</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00044</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00051</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -583,7 +1861,25 @@
         <x:v>598</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Service Use Vehicles</x:v>
+        <x:v>All Other Trucks</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>All Other Trucks - Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00059</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00066</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00044</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00051</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -591,7 +1887,25 @@
         <x:v>599</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Not Otherwise Classified Trucks</x:v>
+        <x:v>All Other Trucks</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>All Other Trucks - Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00059</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00066</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00044</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00051</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -599,7 +1913,25 @@
         <x:v>601</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Escort Vehicles (Other Than Funeral Escort Vehicles)</x:v>
+        <x:v>Private Passenger Types</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Private Passenger Types</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00063</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00041</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00048</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00055</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -607,7 +1939,25 @@
         <x:v>603</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Pizza and Fast Food Delivery - Other Than Hired Autos</x:v>
+        <x:v>Private Passenger Types</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Private Passenger Types</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00063</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00041</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00048</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00055</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -615,7 +1965,25 @@
         <x:v>604</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Salesperson Autos</x:v>
+        <x:v>Private Passenger Types</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Private Passenger Types</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00063</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00041</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00048</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00055</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -623,7 +1991,25 @@
         <x:v>605</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Traveling Medical Professional Vehicles</x:v>
+        <x:v>Private Passenger Types</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Private Passenger Types</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00063</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00041</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00048</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00055</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -631,7 +2017,25 @@
         <x:v>606</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Medical/Dental Office Vehicles</x:v>
+        <x:v>Private Passenger Types</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Private Passenger Types</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00063</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00041</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00048</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00055</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -639,7 +2043,25 @@
         <x:v>607</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Religious Organization Vehicles</x:v>
+        <x:v>Private Passenger Types</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Private Passenger Types</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00063</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00041</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00048</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00055</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -647,7 +2069,25 @@
         <x:v>608</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Social Service Agency Vehicles</x:v>
+        <x:v>Private Passenger Types</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Private Passenger Types</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00063</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00041</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00048</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00055</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -655,7 +2095,25 @@
         <x:v>609</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Contractor or Trucking Business Vehicles</x:v>
+        <x:v>Private Passenger Types</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Private Passenger Types</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00063</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00041</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00048</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00055</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -663,7 +2121,25 @@
         <x:v>610</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Garage Operation Vehicles</x:v>
+        <x:v>Private Passenger Types</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Private Passenger Types</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00063</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00041</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00048</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00055</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -671,7 +2147,25 @@
         <x:v>611</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>School or Educational Service Vehicles</x:v>
+        <x:v>Private Passenger Types</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Private Passenger Types</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00063</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00041</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00048</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00055</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -679,7 +2173,25 @@
         <x:v>612</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Real Estate Agency Vehicles</x:v>
+        <x:v>Private Passenger Types</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Private Passenger Types</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00063</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00041</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00048</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00055</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -687,7 +2199,25 @@
         <x:v>699</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>All Other Commercial Private Passenger Type Autos</x:v>
+        <x:v>Private Passenger Types</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Private Passenger Types</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00063</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00041</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00048</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00055</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -695,7 +2225,25 @@
         <x:v>701</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Taxis - Multiple Unit Risks With Fare Boxes</x:v>
+        <x:v>Livery</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Livery</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Livery - Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00060</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00067</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00070</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00052</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -703,7 +2251,25 @@
         <x:v>703</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Taxis - Single Unit Risks With Fare Boxes</x:v>
+        <x:v>Livery</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Livery</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Livery - Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00060</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00067</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00070</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00052</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -711,7 +2277,25 @@
         <x:v>704</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Taxis - Single Unit Risks Without Fare Boxes</x:v>
+        <x:v>Livery</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Livery</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Livery - Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00060</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00067</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00070</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00052</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -719,7 +2303,25 @@
         <x:v>705</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Taxis - Multiple Unit Risks Without Fare Boxes</x:v>
+        <x:v>Livery</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Livery</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Livery - Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00060</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00067</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00070</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00052</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -727,7 +2329,25 @@
         <x:v>801</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Limousines</x:v>
+        <x:v>Livery</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Livery</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Livery - Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00060</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00067</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00070</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00052</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -735,7 +2355,25 @@
         <x:v>803</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Airport Transportation Services</x:v>
+        <x:v>For Hire Public</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>For Hire Public</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>For Hire Public</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00061</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00068</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00071</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00053</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -743,7 +2381,25 @@
         <x:v>804</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Day Care Center Autos - Not For Profit</x:v>
+        <x:v>Not For Hire Public</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Not For Hire Public</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00062</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00069</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00072</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00073</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -751,7 +2407,25 @@
         <x:v>805</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Boy &amp; Girl Scout Buses</x:v>
+        <x:v>Not For Hire Public</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Not For Hire Public</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00062</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00069</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00072</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00073</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -759,7 +2433,25 @@
         <x:v>807</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Senior Citizen Center Autos</x:v>
+        <x:v>Not For Hire Public</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Not For Hire Public</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00062</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00069</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00072</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00073</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -767,7 +2459,25 @@
         <x:v>808</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Social Service Agency Autos</x:v>
+        <x:v>Not For Hire Public</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Not For Hire Public</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00062</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00069</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00072</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00073</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -775,7 +2485,25 @@
         <x:v>809</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Employee Transportation - Not For Hire</x:v>
+        <x:v>Not For Hire Public</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Not For Hire Public</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00062</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00069</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00072</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00073</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -783,7 +2511,25 @@
         <x:v>810</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Custom Harvesters</x:v>
+        <x:v>For Hire Public</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>For Hire Public</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>For Hire Public</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00061</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00068</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00071</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00053</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -791,7 +2537,25 @@
         <x:v>812</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Urban Buses</x:v>
+        <x:v>Not For Hire Public</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Not For Hire Public</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00062</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00069</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00072</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00073</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -799,7 +2563,25 @@
         <x:v>813</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Inter-City Buses</x:v>
+        <x:v>For Hire Public</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>For Hire Public</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>For Hire Public</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00061</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00068</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00071</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00053</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -807,7 +2589,25 @@
         <x:v>814</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Charter Buses - Interstate</x:v>
+        <x:v>For Hire Public</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>For Hire Public</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>For Hire Public</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00061</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00068</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00071</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00053</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -815,7 +2615,25 @@
         <x:v>815</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Sightseeing Buses</x:v>
+        <x:v>For Hire Public</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>For Hire Public</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>For Hire Public</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00061</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00068</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00071</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00053</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -823,7 +2641,25 @@
         <x:v>816</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Athlete Buses - Owned By A Professional Athletic Organization</x:v>
+        <x:v>Not For Hire Public</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Not For Hire Public</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00062</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00069</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00072</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00073</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -831,7 +2667,25 @@
         <x:v>817</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Musician/Entertainer Buses - Owned By A Professional Musician/Entertainer</x:v>
+        <x:v>Not For Hire Public</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Not For Hire Public</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00062</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00069</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00072</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00073</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -839,7 +2693,25 @@
         <x:v>819</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Drum &amp; Bugle Corps Buses</x:v>
+        <x:v>Not For Hire Public</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Not For Hire Public</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00062</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00069</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00072</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00073</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -847,7 +2719,25 @@
         <x:v>820</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>School Buses - Owned By A Political Subdivision Or School District</x:v>
+        <x:v>Not For Hire Public</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Not For Hire Public</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00062</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00069</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00072</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00073</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -855,7 +2745,25 @@
         <x:v>821</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>School Buses - Not Owned By A School Or Political Subdivision</x:v>
+        <x:v>Not For Hire Public</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Not For Hire Public</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00062</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00069</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00072</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00073</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -863,7 +2771,25 @@
         <x:v>822</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Church Buses</x:v>
+        <x:v>Not For Hire Public</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Unity</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Not For Hire Public</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00062</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00069</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00072</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00073</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -871,7 +2797,25 @@
         <x:v>824</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Courtesy Autos</x:v>
+        <x:v>Not For Hire Public</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Not For Hire Public</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00062</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00069</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00072</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00073</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -879,7 +2823,25 @@
         <x:v>825</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Charter Buses - Intrastate</x:v>
+        <x:v>For Hire Public</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>For Hire Public</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>For Hire Public</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00061</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00068</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00071</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00053</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -887,7 +2849,25 @@
         <x:v>826</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Airport Limousines</x:v>
+        <x:v>Livery</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Livery</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Livery - Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00060</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00067</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00070</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00052</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -895,7 +2875,25 @@
         <x:v>828</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Trams</x:v>
+        <x:v>Not For Hire Public</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Not For Hire Public</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00062</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00069</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00072</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00073</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -903,7 +2901,25 @@
         <x:v>829</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Ski Buses (Tourist Shuttles - Florida Only)</x:v>
+        <x:v>Not For Hire Public</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Not For Hire Public</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00062</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00069</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00072</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00073</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -911,7 +2927,25 @@
         <x:v>831</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Day Care Center Autos - For Profit</x:v>
+        <x:v>Not For Hire Public</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Unity</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Not For Hire Public</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00062</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00069</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00072</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00073</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -919,7 +2953,25 @@
         <x:v>835</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Hotel Courtesy Autos</x:v>
+        <x:v>Not For Hire Public</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Not For Hire Public</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00062</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00069</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00072</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00073</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -927,7 +2979,25 @@
         <x:v>836</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Airport Shuttles</x:v>
+        <x:v>Not For Hire Public</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Not For Hire Public</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00062</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00069</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00072</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00073</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -935,7 +3005,25 @@
         <x:v>837</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Wilderness Expedition Autos</x:v>
+        <x:v>Not For Hire Public</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Not For Hire Public</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00062</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00069</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00072</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00073</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -943,7 +3031,25 @@
         <x:v>838</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Transportation Of Railroad Employees</x:v>
+        <x:v>Not For Hire Public</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Not For Hire Public</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00062</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00069</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00072</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00073</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -951,415 +3057,25 @@
         <x:v>839</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Employee Transportation - For Hire</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>840</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>Luxury Non-Stretched Sedans - Operating With At Least 20% Of Other Vehicles Stretched</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>843</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>Prisoner Transfers Or Extradition Transports - Intrastate</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>844</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>Athlete Buses - Not Owned By A Professional Athletic Organization</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>845</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>Musician/Entertainer Buses - Not Owned By A Professional Musician/Entertainer</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>846</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>Bingo/Casino Transportation - Owned By A Bingo/Casino Operation</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>847</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>School Buses - Owned By A Private Or Parochial School</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>848</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>Group Home Autos</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>849</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>Kiddie Transportation</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>850</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>Owner-Operated Religious Group Transportation</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>851</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>Medical Care Provider Courtesy Autos</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>852</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>Four-Wheel Drive Auto Tour Vehicles</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>853</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>Bingo/Casino Transportation - Owned By A Separate Transportation Business</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>854</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>Head Start Program Autos</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>855</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>Luxury Non-Stretched Sedans - Operating With More Than 80% Of Other Vehicles Not Stretched</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>856</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>Dial-a-Rides</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>857</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>Charter Transportation Operating With A Limousine Business - Interstate</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>858</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>Charter Transportation Operating With A Limousine Business - Intrastate</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>859</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>Stretched Non-Sedan Transportation</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>860</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>Kiddie Transportation - Non-Owner Operated</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>861</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>Party Buses - Interstate</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>862</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>Party Buses - Intrastate</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>863</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>Amphibious Sightseeing Auto</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>897</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>All Other Public Autos; Not Otherwise Classified - Not For Profit</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>899</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>All Other Public Autos; Not Otherwise Classified</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>1601</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>Emergency Ambulance - For Profit</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>1602</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>Emergency Ambulance - Not For Profit</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>1604</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>Driver Training Autos</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>1605</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>Fire Department Vehicles</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>1606</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>Funeral Director Vehicles</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>1607</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>Medical Transportation, Medi-Van, Non-Emergency Ambulance - Not For Profit</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>1608</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>Law Enforcement Agency Vehicles</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>1609</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>Private Passenger Rentals - Newer Units (Under Three Years Old)</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>1610</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>Private Passenger Rentals - Jeeps</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>1611</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>Private Passenger Rentals - Older Units (Three Years Old Or Older)</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>1612</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>Registration Plates (Not Specific Autos)</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>1613</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>Rentals - Light &amp; Medium Commercial Autos</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>1625</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>Security Patrol Vehicles</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>1629</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>Rental Vans - Small Passenger &amp; Conversion Vans</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>1631</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>Medical Transportation, Medi-Van, Non-Emergency Ambulance - For Profit</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>1632</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>Funeral Escort Vehicles - Owned By A Funeral Home Or Funeral Director</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>1633</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>Bookmobiles, Bloodmobiles, &amp; Other Similar Autos</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>1634</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>Rescue Squad Vehicles</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>1635</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>Transportation Funeral Hearses</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>1636</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>Private Passenger Rentals - Owned By An Aviation Related Entity</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>1637</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>Private Passenger Rentals - Owned By A Garage Dealer or Auto Service Operation</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>1638</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>Funeral Escort Vehicles - Owned By A Transportation Business</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>1640</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>Driver Training Trucks &amp; Tractors</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>1641</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>Driver Training Buses</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>1642</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>Luxury Private Passenger Rentals</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>1643</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>Private Passenger Auto Rentals – SUVs and Minivans</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>1699</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>All Other Special Types &amp; Operations; Not Otherwise Classified</x:v>
+        <x:v>For Hire Public</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>For Hire Public</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>For Hire Public</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00061</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00068</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00071</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>VA00053</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
